--- a/biology/Médecine/Trypophobie/Trypophobie.xlsx
+++ b/biology/Médecine/Trypophobie/Trypophobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La trypophobie est un trouble proche de la phobie, associé à la vision d'un groupe de trous. Elle peut concerner par exemple la vision de nids d’abeilles, d'une tête du lotus avec ses graines ou encore d'une plaque de chocolat soufflé. Elle peut se manifester par de l’anxiété, des démangeaisons ou la chair de poule, et la nausée. La trypophobie est condidéré comme une phobie médicale depuis 2005. 
 </t>
@@ -511,11 +523,13 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La trypophobie pourrait s'expliquer par une sur-réaction à la vision d'orifice comme signes d'une infection ou de la présence de parasites[1], ou par le fait que les images provoquant le trouble possèdent des caractéristiques mathématiques semblables à toutes celles qui, quand on les regarde, entraînent un inconfort visuel, une fatigue des yeux ou un mal de tête[2].
-La trypophobie serait un reliquat de l'instinct de survie dans l'évolution : des chercheurs ont constaté que de nombreuses images d'objets et de plantes criblés de trous, avec des couleurs très contrastées, déclenchaient des crises de trypophobie et ont émis l'hypothèse d'une analogie avec l'aspect d'animaux venimeux[3],[4].
+La trypophobie pourrait s'expliquer par une sur-réaction à la vision d'orifice comme signes d'une infection ou de la présence de parasites, ou par le fait que les images provoquant le trouble possèdent des caractéristiques mathématiques semblables à toutes celles qui, quand on les regarde, entraînent un inconfort visuel, une fatigue des yeux ou un mal de tête.
+La trypophobie serait un reliquat de l'instinct de survie dans l'évolution : des chercheurs ont constaté que de nombreuses images d'objets et de plantes criblés de trous, avec des couleurs très contrastées, déclenchaient des crises de trypophobie et ont émis l'hypothèse d'une analogie avec l'aspect d'animaux venimeux,.
 </t>
         </is>
       </c>
